--- a/src/tools/illusion/template/配置范例表格.xlsx
+++ b/src/tools/illusion/template/配置范例表格.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courage\zcelib.git\src\tools\illusion\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>名称</t>
   </si>
@@ -342,10 +342,6 @@
   </si>
   <si>
     <t>配置项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空字段的默认值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -522,6 +518,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,84 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,164 +885,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42" style="21" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="56.875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="9" style="21"/>
-    <col min="5" max="5" width="10.75" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="42" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="56.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="10.75" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="26" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="13">
+        <v>3</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="26" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B25" s="13">
         <v>2</v>
       </c>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="26" t="s">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A13" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="28">
-        <v>1</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="28">
-        <v>1</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A15" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="28">
-        <v>0</v>
-      </c>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1060,602 +1160,602 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="34.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D4" s="8"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D5" s="8"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="6">
         <v>7</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="6">
         <v>0</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="6">
         <v>20</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="6">
         <v>1</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="6">
         <v>21</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="6">
         <v>22</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="6">
         <v>23</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="6">
         <v>1</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="6">
         <v>24</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="6">
         <v>1</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="6">
         <v>26</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="6">
         <v>27</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="6">
         <v>28</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="15"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="6">
         <v>29</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="6">
         <v>30</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="6">
         <v>1</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="6">
         <v>31</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="15"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="6">
         <v>32</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="6">
         <v>33</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="6">
         <v>34</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="6">
         <v>35</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="6">
         <v>36</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="6">
         <v>37</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="6">
         <v>38</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="6">
         <v>1001</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.15">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
